--- a/ResultadoEleicoesDistritos/LISBOA_OEIRAS.xlsx
+++ b/ResultadoEleicoesDistritos/LISBOA_OEIRAS.xlsx
@@ -597,64 +597,64 @@
         <v>43605</v>
       </c>
       <c r="H2" t="n">
-        <v>1593</v>
+        <v>1576</v>
       </c>
       <c r="I2" t="n">
-        <v>4385</v>
+        <v>4288</v>
       </c>
       <c r="J2" t="n">
-        <v>18035</v>
+        <v>17967</v>
       </c>
       <c r="K2" t="n">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="L2" t="n">
-        <v>4885</v>
+        <v>4950</v>
       </c>
       <c r="M2" t="n">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="N2" t="n">
-        <v>3124</v>
+        <v>3261</v>
       </c>
       <c r="O2" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="P2" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="Q2" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="R2" t="n">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="S2" t="n">
-        <v>1840</v>
+        <v>1916</v>
       </c>
       <c r="T2" t="n">
-        <v>3101</v>
+        <v>3050</v>
       </c>
       <c r="U2" t="n">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="V2" t="n">
-        <v>27890</v>
+        <v>28066</v>
       </c>
       <c r="W2" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>27956</v>
+        <v>27843</v>
       </c>
       <c r="Y2" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="Z2" t="n">
-        <v>436</v>
+        <v>396</v>
       </c>
       <c r="AA2" t="n">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
